--- a/Benchmark-Models/Chen_MSB2009/Data/model1_data2.xlsx
+++ b/Benchmark-Models/Chen_MSB2009/Data/model1_data2.xlsx
@@ -480,13 +480,13 @@
         <v>1800.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.6576024368483166E-25</v>
+        <v>3.3784242061008925E-17</v>
       </c>
       <c r="C2" t="n">
-        <v>2.193381243006495E-17</v>
+        <v>1.8730848893942018E-65</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5385066850060206E-18</v>
+        <v>1.811087348332501E-67</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
         <v>1950.0</v>
       </c>
       <c r="B3" t="n">
-        <v>4.896978222759807E-6</v>
+        <v>5.288763734902035E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.34911914755297924</v>
+        <v>24.26245711982841</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6191668023975291</v>
+        <v>56.03538964589353</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>2100.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.6193222585567616E-6</v>
+        <v>4.988829070433951E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4598572545043304</v>
+        <v>31.95173644105204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7678180106640103</v>
+        <v>69.4880524491847</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         <v>2250.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.318053197708855E-6</v>
+        <v>4.6634600670102566E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.46964724485782317</v>
+        <v>32.62445190067598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8113176388376869</v>
+        <v>73.42479246624454</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>2400.0</v>
       </c>
       <c r="B6" t="n">
-        <v>4.248573101908808E-6</v>
+        <v>4.588420537456158E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4574534087821635</v>
+        <v>31.768300585944544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8203653852451486</v>
+        <v>74.24396780692437</v>
       </c>
     </row>
     <row r="7">
@@ -550,13 +550,13 @@
         <v>2700.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.309450997683147E-6</v>
+        <v>4.654169700740224E-4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4131483915096284</v>
+        <v>28.67599689805623</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8150524659807414</v>
+        <v>73.76480378513577</v>
       </c>
     </row>
     <row r="8">
@@ -564,13 +564,13 @@
         <v>3600.0</v>
       </c>
       <c r="B8" t="n">
-        <v>4.632600863004277E-6</v>
+        <v>5.003216739250544E-4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2600923154274199</v>
+        <v>21.202276581384755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.769793867747934</v>
+        <v>69.41823426061886</v>
       </c>
     </row>
     <row r="9">
@@ -578,13 +578,13 @@
         <v>4500.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4.945306725029309E-6</v>
+        <v>5.34193451194145E-4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11406099355066639</v>
+        <v>17.862792876763365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7356052746366036</v>
+        <v>64.86170727895542</v>
       </c>
     </row>
     <row r="10">
@@ -592,13 +592,13 @@
         <v>5400.0</v>
       </c>
       <c r="B10" t="n">
-        <v>5.238686413294866E-6</v>
+        <v>5.661669799333696E-4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.013743299074819821</v>
+        <v>16.558051644351305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7251184899771144</v>
+        <v>61.232128498814454</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         <v>9000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>6.218508143362955E-6</v>
+        <v>6.755592014327413E-4</v>
       </c>
       <c r="C11" t="n">
-        <v>9.29651781854423E-9</v>
+        <v>15.81811378732604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7244061523223367</v>
+        <v>52.00280449765328</v>
       </c>
     </row>
   </sheetData>
